--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009DD00-AFC2-4399-A722-2500B2D60367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB267C4-A866-4ADE-B8F0-F457243E096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2130" windowWidth="19380" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>Diadem Macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacroMode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1573,6 +1577,20 @@
       </c>
       <c r="D59" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1058</v>
+      </c>
+      <c r="B60">
+        <v>1058</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB267C4-A866-4ADE-B8F0-F457243E096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B46B33-D7C5-4C48-84E5-13DEE3AA1A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26745" yWindow="2910" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -412,6 +412,14 @@
   </si>
   <si>
     <t>MacroMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyboardDelay(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 딜레이(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1591,6 +1599,20 @@
       </c>
       <c r="D60" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1059</v>
+      </c>
+      <c r="B61">
+        <v>1059</v>
+      </c>
+      <c r="C61" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\DiademMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B46B33-D7C5-4C48-84E5-13DEE3AA1A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6B468-7CA9-4273-B354-DEBD44A2782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="2910" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -420,6 +420,30 @@
   </si>
   <si>
     <t>키보드 딜레이(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Removal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,20 +772,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:B61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -789,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -803,7 +827,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -817,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -831,7 +855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -845,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -859,7 +883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -873,7 +897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -887,7 +911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -901,7 +925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -915,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -929,7 +953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -943,7 +967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -957,7 +981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -971,7 +995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -985,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1013,7 +1037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1027,7 +1051,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1069,7 +1093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -1125,7 +1149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -1139,7 +1163,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -1153,7 +1177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -1181,7 +1205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1195,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -1223,7 +1247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -1237,7 +1261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -1251,7 +1275,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -1279,7 +1303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -1293,7 +1317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -1349,7 +1373,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -1363,7 +1387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -1391,7 +1415,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -1405,7 +1429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1045</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1046</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1047</v>
       </c>
@@ -1447,7 +1471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1048</v>
       </c>
@@ -1461,7 +1485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1049</v>
       </c>
@@ -1475,7 +1499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1050</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1051</v>
       </c>
@@ -1503,7 +1527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1052</v>
       </c>
@@ -1517,7 +1541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1053</v>
       </c>
@@ -1531,7 +1555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1054</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1055</v>
       </c>
@@ -1553,13 +1577,13 @@
         <v>1055</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1056</v>
       </c>
@@ -1567,13 +1591,13 @@
         <v>1056</v>
       </c>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1057</v>
       </c>
@@ -1581,13 +1605,13 @@
         <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1058</v>
       </c>
@@ -1595,13 +1619,13 @@
         <v>1058</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1059</v>
       </c>
@@ -1609,10 +1633,38 @@
         <v>1059</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>1060</v>
+      </c>
+      <c r="B62">
+        <v>1060</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>1061</v>
+      </c>
+      <c r="B63">
+        <v>1061</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1629,9 +1681,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\DiademMacro\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F6B468-7CA9-4273-B354-DEBD44A2782E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4ED6B-3CC3-46EF-8459-DFB4A1759FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="450" windowWidth="24900" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -444,6 +444,14 @@
   </si>
   <si>
     <t>복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,20 +780,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -813,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -827,7 +835,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -841,7 +849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -855,7 +863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -869,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -883,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -897,7 +905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -911,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -925,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -939,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -953,7 +961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -967,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -981,7 +989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1038</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1040</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1041</v>
       </c>
@@ -1387,7 +1395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1042</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1043</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1044</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1045</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1046</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1047</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1048</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1049</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1050</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1051</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1052</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1053</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1054</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1055</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1056</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1057</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1058</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1059</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1060</v>
       </c>
@@ -1653,7 +1661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1061</v>
       </c>
@@ -1665,6 +1673,20 @@
       </c>
       <c r="D63" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1062</v>
+      </c>
+      <c r="B64">
+        <v>1062</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1681,9 +1703,9 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1739,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D4ED6B-3CC3-46EF-8459-DFB4A1759FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA56B8-CB2C-4D1C-A5C3-461DA4C7C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="450" windowWidth="24900" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="105" windowWidth="24900" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -452,6 +452,14 @@
   </si>
   <si>
     <t>Alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,6 +1695,20 @@
       </c>
       <c r="D64" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1063</v>
+      </c>
+      <c r="B65">
+        <v>1063</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA56B8-CB2C-4D1C-A5C3-461DA4C7C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5372CF-5F63-4122-A115-52CE7EBF7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="105" windowWidth="24900" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13260" yWindow="5085" windowWidth="13995" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -460,6 +460,14 @@
   </si>
   <si>
     <t>Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관심영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1709,6 +1717,20 @@
       </c>
       <c r="D65" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1064</v>
+      </c>
+      <c r="B66">
+        <v>1064</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5372CF-5F63-4122-A115-52CE7EBF7D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970F22F-4C6B-4E8E-A7A9-8728157098A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13260" yWindow="5085" windowWidth="13995" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13260" yWindow="4185" windowWidth="13995" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -383,14 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NoSearchChild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchParent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자식 이벤트 실행 시 반복</t>
   </si>
   <si>
@@ -469,6 +461,12 @@
   <si>
     <t>Roi</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatOnChildEvent</t>
+  </si>
+  <si>
+    <t>StopOnParentImage</t>
   </si>
 </sst>
 </file>
@@ -798,13 +796,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1069,10 +1067,10 @@
         <v>1017</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1248,13 +1246,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
         <v>114</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>116</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,13 +1260,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1629,10 +1627,10 @@
         <v>1057</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1643,10 +1641,10 @@
         <v>1058</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,10 +1655,10 @@
         <v>1059</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1671,10 +1669,10 @@
         <v>1060</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1685,10 +1683,10 @@
         <v>1061</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1699,10 +1697,10 @@
         <v>1062</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1713,10 +1711,10 @@
         <v>1063</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1727,10 +1725,10 @@
         <v>1064</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970F22F-4C6B-4E8E-A7A9-8728157098A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572055F1-6193-463A-A2AC-9AD8EABE0209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13260" yWindow="4185" windowWidth="13995" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>StopOnParentImage</t>
+  </si>
+  <si>
+    <t>프로세스 뷰어 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Process Viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1729,6 +1737,20 @@
       </c>
       <c r="D66" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1065</v>
+      </c>
+      <c r="B67">
+        <v>1065</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTemplate/Label.xlsx
+++ b/ExcelTemplate/Label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572055F1-6193-463A-A2AC-9AD8EABE0209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F585719-0A85-4297-98F9-A4CD4BB11873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13260" yWindow="4185" windowWidth="13995" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,11 +469,11 @@
     <t>StopOnParentImage</t>
   </si>
   <si>
-    <t>프로세스 뷰어 보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Process Viewer</t>
+    <t>이미지 뷰어 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Image Viewer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +805,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
